--- a/warehouse_data.xlsx
+++ b/warehouse_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\4540\Documents\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5118791-CDBA-4D30-9E91-D025242795C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA13BD-01F2-439A-80D9-AEAEAF558ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32595" yWindow="2280" windowWidth="22140" windowHeight="11835" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="rowdown" sheetId="2" r:id="rId2"/>
     <sheet name="map" sheetId="3" r:id="rId3"/>
     <sheet name="sale_sheet_data" sheetId="4" r:id="rId4"/>
-    <sheet name="goods_sheet" sheetId="5" r:id="rId5"/>
+    <sheet name="goods_sheet" sheetId="7" r:id="rId5"/>
     <sheet name="rowdown_order" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="169">
   <si>
     <t>timestamp</t>
   </si>
@@ -393,46 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>單位1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓬萊白米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,6 +581,82 @@
   </si>
   <si>
     <t>TTTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庫存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓬萊白米1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓬萊白米2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長糯白米1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓糯白米1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清東蓬萊白米1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎米1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米糠1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長米1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長糯白米2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓糯白米2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清東蓬萊白米2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎米2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米糠2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長米2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2110,7 +2138,7 @@
         <v>3452900</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2124,7 +2152,7 @@
         <v>1140035</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2190,165 +2218,700 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD5E754-77EB-4519-9A22-A7CC36F707DB}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D60B0A-07C4-440F-B052-0E77AC5B1E8A}">
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>105</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>106</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>107</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B9" t="s">
         <v>109</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C9">
+        <v>32350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10">
+        <v>111143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11">
+        <v>34534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13">
+        <v>57547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15">
+        <v>6634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16">
+        <v>32350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18">
+        <v>57547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C28">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34">
+        <v>32350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35">
+        <v>111143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36">
+        <v>34534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38">
+        <v>57547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40">
+        <v>6634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41">
+        <v>32350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43">
+        <v>57547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C45">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52">
+        <v>32350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53">
+        <v>111143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C54">
+        <v>34534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
         <v>114</v>
       </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C55">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56">
+        <v>57547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58">
+        <v>6634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59">
+        <v>32350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>125</v>
+      <c r="C61">
+        <v>57547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2925,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2377,111 +2940,111 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
